--- a/capiq_data/in_process_data/IQ3051626.xlsx
+++ b/capiq_data/in_process_data/IQ3051626.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AEFAF6-924C-4A21-B179-358E263F3825}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA269AD4-D992-4935-A993-9E8B18B094E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"768356a7-771c-4cf4-bd2e-e5875621320b"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"9dd4d6d7-341d-4f9e-a6ef-430400314240"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$73</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$73</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$73</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$73</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$73</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$73</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$73</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$73</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$73</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$73</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$73</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$73</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$73</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$73</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$73</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$73</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$73</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$73</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$73</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$73</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$73</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$73</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$73</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$73</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$73</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$73</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,99 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,31 +826,31 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>37711</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>3.581</v>
+        <v>-1.8738600000000001</v>
       </c>
       <c r="D2">
-        <v>47.057000000000002</v>
+        <v>3.2562799999999998</v>
       </c>
       <c r="E2">
-        <v>18.347000000000001</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>23.741</v>
+        <v>1.39083</v>
       </c>
       <c r="G2">
-        <v>224.37299999999999</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>281.60300000000001</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.9789999999999992</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -772,75 +865,75 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>28.97</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>34.707999999999998</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.7349999999999999</v>
+        <v>-10.030849999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>37711</v>
       </c>
       <c r="S2">
-        <v>889</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>246.89500000000001</v>
+        <v>19.05321</v>
       </c>
       <c r="U2">
-        <v>48.01</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>10.243</v>
+        <v>-1.7878000000000001</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-13.598000000000001</v>
+        <v>2.3E-2</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>10.926</v>
+        <v>-8.0074400000000008</v>
       </c>
       <c r="AA2">
-        <v>3.581</v>
+        <v>-1.8738600000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>37802</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>1.893</v>
+        <v>-1.68109</v>
       </c>
       <c r="D3">
-        <v>44.468000000000004</v>
+        <v>4.6754899999999999</v>
       </c>
       <c r="E3">
-        <v>17.641999999999999</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>22.305</v>
+        <v>2.34518</v>
       </c>
       <c r="G3">
-        <v>219.66900000000001</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>275.01</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>10.505000000000001</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -855,75 +948,75 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>26.74</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>31.760999999999999</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>26.052</v>
+        <v>-1.4735100000000001</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>37802</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>243.249</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>74.061999999999998</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>8.23</v>
+        <v>-1.4434400000000001</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-8.82</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>29.611999999999998</v>
+        <v>-1.984E-2</v>
       </c>
       <c r="AA3">
-        <v>1.893</v>
+        <v>-1.68109</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37894</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>3.4820000000000002</v>
+        <v>0.16269</v>
       </c>
       <c r="D4">
-        <v>51.628</v>
+        <v>8.1095400000000009</v>
       </c>
       <c r="E4">
-        <v>17.588999999999999</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>26.558</v>
+        <v>4.5647200000000003</v>
       </c>
       <c r="G4">
-        <v>207.774</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>263.16000000000003</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>10.929</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -938,75 +1031,75 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>31.009</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>36.03</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>23.623000000000001</v>
+        <v>3.0558900000000002</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37894</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>227.13</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>97.685000000000002</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>13.284000000000001</v>
+        <v>4.6359999999999998E-2</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-23.988</v>
+        <v>4.7109999999999999E-2</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>36.25</v>
+        <v>3.99085</v>
       </c>
       <c r="AA4">
-        <v>3.4820000000000002</v>
+        <v>0.16269</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37986</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>5.4729999999999999</v>
+        <v>0.35605999999999999</v>
       </c>
       <c r="D5">
-        <v>52.962000000000003</v>
+        <v>8.1630199999999995</v>
       </c>
       <c r="E5">
-        <v>16.420000000000002</v>
+        <v>4.5661100000000001</v>
       </c>
       <c r="F5">
-        <v>27.814</v>
+        <v>4.9736700000000003</v>
       </c>
       <c r="G5">
-        <v>203.126</v>
+        <v>19.63747</v>
       </c>
       <c r="H5">
-        <v>267.16199999999998</v>
+        <v>22.603259999999999</v>
       </c>
       <c r="I5">
-        <v>9.5150000000000006</v>
+        <v>1.7924100000000001</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1021,75 +1114,75 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>25.088999999999999</v>
+        <v>2.8943099999999999</v>
       </c>
       <c r="O5">
-        <v>30.109000000000002</v>
+        <v>2.9590200000000002</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>-4.7130000000000001</v>
+        <v>2.8603900000000002</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37986</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="T5">
-        <v>237.053</v>
+        <v>19.64424</v>
       </c>
       <c r="U5">
-        <v>92.971999999999994</v>
+        <v>11.63541</v>
       </c>
       <c r="V5">
-        <v>8.9049999999999994</v>
+        <v>0.23205999999999999</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.58799999999999997</v>
+        <v>0.40248</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-0.65500000000000003</v>
+        <v>2.5231400000000002</v>
       </c>
       <c r="AA5">
-        <v>5.4729999999999999</v>
+        <v>0.35605999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>38077</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>2.4529999999999998</v>
+        <v>-2.7925399999999998</v>
       </c>
       <c r="D6">
-        <v>47.460999999999999</v>
+        <v>6.7951899999999998</v>
       </c>
       <c r="E6">
-        <v>15.097</v>
+        <v>2.8873899999999999</v>
       </c>
       <c r="F6">
-        <v>24.917000000000002</v>
+        <v>3.4817</v>
       </c>
       <c r="G6">
-        <v>211.505</v>
+        <v>15.479229999999999</v>
       </c>
       <c r="H6">
-        <v>273.86700000000002</v>
+        <v>24.520440000000001</v>
       </c>
       <c r="I6">
-        <v>8.9039999999999999</v>
+        <v>2.1543700000000001</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1104,75 +1197,75 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>26.07</v>
+        <v>4.2025899999999998</v>
       </c>
       <c r="O6">
-        <v>30.99</v>
+        <v>4.2906599999999999</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3.399</v>
+        <v>-3.1968200000000002</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>38077</v>
       </c>
       <c r="S6">
-        <v>922</v>
+        <v>104</v>
       </c>
       <c r="T6">
-        <v>242.87700000000001</v>
+        <v>20.229790000000001</v>
       </c>
       <c r="U6">
-        <v>96.370999999999995</v>
+        <v>8.9385899999999996</v>
       </c>
       <c r="V6">
-        <v>13.266</v>
+        <v>2.21116</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.245</v>
+        <v>0.16539999999999999</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-7.9630000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>2.4529999999999998</v>
+        <v>-2.7925399999999998</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>38168</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>2.9950000000000001</v>
+        <v>-0.67245999999999995</v>
       </c>
       <c r="D7">
-        <v>50.484000000000002</v>
+        <v>11.263999999999999</v>
       </c>
       <c r="E7">
-        <v>19.946999999999999</v>
+        <v>3.6415000000000002</v>
       </c>
       <c r="F7">
-        <v>26.41</v>
+        <v>6.5119999999999996</v>
       </c>
       <c r="G7">
-        <v>225.42</v>
+        <v>18.495609999999999</v>
       </c>
       <c r="H7">
-        <v>291.18</v>
+        <v>28.059889999999999</v>
       </c>
       <c r="I7">
-        <v>14.573</v>
+        <v>2.1720600000000001</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1187,75 +1280,75 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>31.469000000000001</v>
+        <v>5.3390899999999997</v>
       </c>
       <c r="O7">
-        <v>36.399000000000001</v>
+        <v>5.4781599999999999</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>-17.64</v>
+        <v>3.1558199999999998</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>38168</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="T7">
-        <v>254.78100000000001</v>
+        <v>22.58173</v>
       </c>
       <c r="U7">
-        <v>78.730999999999995</v>
+        <v>12.094290000000001</v>
       </c>
       <c r="V7">
-        <v>6.2190000000000003</v>
+        <v>3.0438399999999999</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>5.1210000000000004</v>
+        <v>0.1046</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-24.315000000000001</v>
+        <v>0.501</v>
       </c>
       <c r="AA7">
-        <v>2.9950000000000001</v>
+        <v>-0.67300000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>38260</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>6.5919999999999996</v>
+        <v>-1.107</v>
       </c>
       <c r="D8">
-        <v>58.606999999999999</v>
+        <v>14.737</v>
       </c>
       <c r="E8">
-        <v>21.414999999999999</v>
+        <v>3.5901999999999998</v>
       </c>
       <c r="F8">
-        <v>31.172000000000001</v>
+        <v>8.8759999999999994</v>
       </c>
       <c r="G8">
-        <v>238.15100000000001</v>
+        <v>23.986910000000002</v>
       </c>
       <c r="H8">
-        <v>310.07400000000001</v>
+        <v>35.077080000000002</v>
       </c>
       <c r="I8">
-        <v>17.701000000000001</v>
+        <v>6.9700899999999999</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1270,75 +1363,75 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>35.584000000000003</v>
+        <v>10.459289999999999</v>
       </c>
       <c r="O8">
-        <v>40.832999999999998</v>
+        <v>10.6311</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2.9129999999999998</v>
+        <v>3.589</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>38260</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="T8">
-        <v>269.24099999999999</v>
+        <v>24.445979999999999</v>
       </c>
       <c r="U8">
-        <v>81.644000000000005</v>
+        <v>15.68342</v>
       </c>
       <c r="V8">
-        <v>6.0730000000000004</v>
+        <v>4.2450000000000001</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>4.0229999999999997</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>1.159</v>
+        <v>0.5</v>
       </c>
       <c r="AA8">
-        <v>6.5919999999999996</v>
+        <v>-1.107</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>38352</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>5.9210000000000003</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="D9">
-        <v>56.508000000000003</v>
+        <v>14.798999999999999</v>
       </c>
       <c r="E9">
-        <v>21.561</v>
+        <v>3.9950000000000001</v>
       </c>
       <c r="F9">
-        <v>30.013000000000002</v>
+        <v>9.1310000000000002</v>
       </c>
       <c r="G9">
-        <v>242.56800000000001</v>
+        <v>60.920999999999999</v>
       </c>
       <c r="H9">
-        <v>315.26900000000001</v>
+        <v>72.384</v>
       </c>
       <c r="I9">
-        <v>11.404999999999999</v>
+        <v>3.3959999999999999</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1353,75 +1446,75 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>24.864000000000001</v>
+        <v>8.2840000000000007</v>
       </c>
       <c r="O9">
-        <v>30.204999999999998</v>
+        <v>8.4450000000000003</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>-3.3969999999999998</v>
+        <v>16.835999999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>38352</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="T9">
-        <v>285.06400000000002</v>
+        <v>63.939</v>
       </c>
       <c r="U9">
-        <v>78.247</v>
+        <v>32.018999999999998</v>
       </c>
       <c r="V9">
-        <v>1.1579999999999999</v>
+        <v>-0.53200000000000003</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>5.7759999999999998</v>
+        <v>35.307000000000002</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-4.2850000000000001</v>
+        <v>-16.501000000000001</v>
       </c>
       <c r="AA9">
-        <v>5.9210000000000003</v>
+        <v>0.85299999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>38442</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>0.248</v>
+        <v>-1.383</v>
       </c>
       <c r="D10">
-        <v>48.213999999999999</v>
+        <v>14.637</v>
       </c>
       <c r="E10">
-        <v>19.382999999999999</v>
+        <v>4.1258900000000001</v>
       </c>
       <c r="F10">
-        <v>25.553000000000001</v>
+        <v>9.0909999999999993</v>
       </c>
       <c r="G10">
-        <v>214.30099999999999</v>
+        <v>63.143970000000003</v>
       </c>
       <c r="H10">
-        <v>287.16199999999998</v>
+        <v>75.035169999999994</v>
       </c>
       <c r="I10">
-        <v>9.859</v>
+        <v>4.7594200000000004</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1436,75 +1529,75 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>23.46</v>
+        <v>10.535410000000001</v>
       </c>
       <c r="O10">
-        <v>28.867999999999999</v>
+        <v>10.74371</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>-3.1429999999999998</v>
+        <v>0.996</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>38442</v>
       </c>
       <c r="S10">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>258.29399999999998</v>
+        <v>64.291460000000001</v>
       </c>
       <c r="U10">
-        <v>75.103999999999999</v>
+        <v>33.014629999999997</v>
       </c>
       <c r="V10">
-        <v>11.462</v>
+        <v>1.3080000000000001</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-34.472999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>21.63</v>
+        <v>0.4</v>
       </c>
       <c r="AA10">
-        <v>0.248</v>
+        <v>-1.383</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>38533</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>2.4990000000000001</v>
+        <v>-6.7050000000000001</v>
       </c>
       <c r="D11">
-        <v>51.47</v>
+        <v>22.257000000000001</v>
       </c>
       <c r="E11">
-        <v>22.669</v>
+        <v>6.6870000000000003</v>
       </c>
       <c r="F11">
-        <v>27.385000000000002</v>
+        <v>14.089</v>
       </c>
       <c r="G11">
-        <v>234.43100000000001</v>
+        <v>72.164000000000001</v>
       </c>
       <c r="H11">
-        <v>310.791</v>
+        <v>84.412000000000006</v>
       </c>
       <c r="I11">
-        <v>13.256</v>
+        <v>4.0039999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1519,75 +1612,75 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>27.81</v>
+        <v>24.585999999999999</v>
       </c>
       <c r="O11">
-        <v>34.479999999999997</v>
+        <v>24.797000000000001</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18.183</v>
+        <v>1.6579999999999999</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>38533</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>276.31099999999998</v>
+        <v>59.615000000000002</v>
       </c>
       <c r="U11">
-        <v>93.287000000000006</v>
+        <v>34.673000000000002</v>
       </c>
       <c r="V11">
-        <v>6.7039999999999997</v>
+        <v>2.4660000000000002</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>11.138</v>
+        <v>0.4</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>3.6850000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>2.4990000000000001</v>
+        <v>-6.7039999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>38625</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>5.49</v>
+        <v>9.3620000000000001</v>
       </c>
       <c r="D12">
-        <v>57.713999999999999</v>
+        <v>29.706</v>
       </c>
       <c r="E12">
-        <v>20.318999999999999</v>
+        <v>9.7609999999999992</v>
       </c>
       <c r="F12">
-        <v>30.928000000000001</v>
+        <v>19.113</v>
       </c>
       <c r="G12">
-        <v>251.952</v>
+        <v>78.894000000000005</v>
       </c>
       <c r="H12">
-        <v>332.59399999999999</v>
+        <v>90.679000000000002</v>
       </c>
       <c r="I12">
-        <v>14.954000000000001</v>
+        <v>5.9950000000000001</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1602,75 +1695,75 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>32.613</v>
+        <v>19.678000000000001</v>
       </c>
       <c r="O12">
-        <v>38.631999999999998</v>
+        <v>19.896000000000001</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8.4480000000000004</v>
+        <v>10.145</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>38625</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>293.96199999999999</v>
+        <v>70.783000000000001</v>
       </c>
       <c r="U12">
-        <v>101.735</v>
+        <v>44.817999999999998</v>
       </c>
       <c r="V12">
-        <v>15.513</v>
+        <v>7.9429999999999996</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>6.2130000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-6.2450000000000001</v>
+        <v>1.625</v>
       </c>
       <c r="AA12">
-        <v>5.4889999999999999</v>
+        <v>9.3620000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>38717</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>7.41</v>
+        <v>3.8330000000000002</v>
       </c>
       <c r="D13">
-        <v>65.346999999999994</v>
+        <v>32.530999999999999</v>
       </c>
       <c r="E13">
-        <v>21.957000000000001</v>
+        <v>9.5370000000000008</v>
       </c>
       <c r="F13">
-        <v>35.293999999999997</v>
+        <v>20.835000000000001</v>
       </c>
       <c r="G13">
-        <v>270.95</v>
+        <v>87.716999999999999</v>
       </c>
       <c r="H13">
-        <v>350.04</v>
+        <v>100.77500000000001</v>
       </c>
       <c r="I13">
-        <v>10.406000000000001</v>
+        <v>6.5830000000000002</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1685,75 +1778,75 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>26.359000000000002</v>
+        <v>22.266999999999999</v>
       </c>
       <c r="O13">
-        <v>32.709000000000003</v>
+        <v>22.606999999999999</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8.7110000000000003</v>
+        <v>-19.727</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>38717</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="T13">
-        <v>317.33100000000002</v>
+        <v>78.168000000000006</v>
       </c>
       <c r="U13">
-        <v>110.446</v>
+        <v>25.091000000000001</v>
       </c>
       <c r="V13">
-        <v>8.0210000000000008</v>
+        <v>5.4939999999999998</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>9.4749999999999996</v>
+        <v>1.367</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-4.0890000000000004</v>
+        <v>-23.338999999999999</v>
       </c>
       <c r="AA13">
-        <v>7.41</v>
+        <v>3.8330000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>38807</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>7.4989999999999997</v>
+        <v>-0.40799999999999997</v>
       </c>
       <c r="D14">
-        <v>63.56</v>
+        <v>24.763000000000002</v>
       </c>
       <c r="E14">
-        <v>23.73</v>
+        <v>7.3639999999999999</v>
       </c>
       <c r="F14">
-        <v>34.293999999999997</v>
+        <v>15.39</v>
       </c>
       <c r="G14">
-        <v>292.08600000000001</v>
+        <v>89.596000000000004</v>
       </c>
       <c r="H14">
-        <v>368.90800000000002</v>
+        <v>105.99299999999999</v>
       </c>
       <c r="I14">
-        <v>10.694000000000001</v>
+        <v>10.654999999999999</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1768,75 +1861,75 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>38.488999999999997</v>
+        <v>23.619</v>
       </c>
       <c r="O14">
-        <v>45.509</v>
+        <v>24.042999999999999</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>-9.2330000000000005</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>38807</v>
       </c>
       <c r="S14">
-        <v>1105</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>323.399</v>
+        <v>81.95</v>
       </c>
       <c r="U14">
-        <v>101.21299999999999</v>
+        <v>25.937999999999999</v>
       </c>
       <c r="V14">
-        <v>30.448</v>
+        <v>2.548</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-7.976</v>
+        <v>1.3779999999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-31.382000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="AA14">
-        <v>7.4989999999999997</v>
+        <v>-0.40799999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38898</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>9.0180000000000007</v>
+        <v>1.06</v>
       </c>
       <c r="D15">
-        <v>60.061</v>
+        <v>26.600999999999999</v>
       </c>
       <c r="E15">
-        <v>22.056999999999999</v>
+        <v>9.8740000000000006</v>
       </c>
       <c r="F15">
-        <v>32.097000000000001</v>
+        <v>16.768000000000001</v>
       </c>
       <c r="G15">
-        <v>293.25700000000001</v>
+        <v>89.507000000000005</v>
       </c>
       <c r="H15">
-        <v>374.63200000000001</v>
+        <v>107.465</v>
       </c>
       <c r="I15">
-        <v>11.747999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1851,75 +1944,75 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>30.638999999999999</v>
+        <v>17.853999999999999</v>
       </c>
       <c r="O15">
-        <v>39.965000000000003</v>
+        <v>18.088999999999999</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>-12.327999999999999</v>
+        <v>-4.3360000000000003</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38898</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>334.66699999999997</v>
+        <v>89.376000000000005</v>
       </c>
       <c r="U15">
-        <v>88.885000000000005</v>
+        <v>21.602</v>
       </c>
       <c r="V15">
-        <v>11.984999999999999</v>
+        <v>-5.4039999999999999</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-4.7510000000000003</v>
+        <v>4.8259999999999996</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-14.725</v>
+        <v>-0.626</v>
       </c>
       <c r="AA15">
-        <v>9.0180000000000007</v>
+        <v>1.0589999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38990</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>6.3970000000000002</v>
+        <v>-1.873</v>
       </c>
       <c r="D16">
-        <v>68.436000000000007</v>
+        <v>27.254999999999999</v>
       </c>
       <c r="E16">
-        <v>21.42</v>
+        <v>9.577</v>
       </c>
       <c r="F16">
-        <v>37.098999999999997</v>
+        <v>17.873000000000001</v>
       </c>
       <c r="G16">
-        <v>306.29700000000003</v>
+        <v>95.551000000000002</v>
       </c>
       <c r="H16">
-        <v>386.654</v>
+        <v>113.654</v>
       </c>
       <c r="I16">
-        <v>13.759</v>
+        <v>5.4720000000000004</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1934,75 +2027,75 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>41.97</v>
+        <v>20.582999999999998</v>
       </c>
       <c r="O16">
-        <v>52.026000000000003</v>
+        <v>21.937999999999999</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18.978000000000002</v>
+        <v>8.8770000000000007</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38990</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>334.62799999999999</v>
+        <v>91.715999999999994</v>
       </c>
       <c r="U16">
-        <v>107.863</v>
+        <v>30.478999999999999</v>
       </c>
       <c r="V16">
-        <v>25.603000000000002</v>
+        <v>10.548</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-9.6189999999999998</v>
+        <v>-0.46700000000000003</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>6.6689999999999996</v>
+        <v>-0.30099999999999999</v>
       </c>
       <c r="AA16">
-        <v>6.3970000000000002</v>
+        <v>-1.8720000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>39082</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>11.22</v>
+        <v>-1.204</v>
       </c>
       <c r="D17">
-        <v>78.334999999999994</v>
+        <v>26.396000000000001</v>
       </c>
       <c r="E17">
-        <v>24.274000000000001</v>
+        <v>9.1560000000000006</v>
       </c>
       <c r="F17">
-        <v>42.463000000000001</v>
+        <v>16.977</v>
       </c>
       <c r="G17">
-        <v>297.31</v>
+        <v>97.16</v>
       </c>
       <c r="H17">
-        <v>392.69900000000001</v>
+        <v>117.327</v>
       </c>
       <c r="I17">
-        <v>14.792999999999999</v>
+        <v>5.9089999999999998</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2017,75 +2110,75 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>36.927999999999997</v>
+        <v>20.048999999999999</v>
       </c>
       <c r="O17">
-        <v>51.037999999999997</v>
+        <v>22.302</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>-6.0510000000000002</v>
+        <v>20.337</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>39082</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="T17">
-        <v>341.661</v>
+        <v>95.025000000000006</v>
       </c>
       <c r="U17">
-        <v>101.812</v>
+        <v>50.816000000000003</v>
       </c>
       <c r="V17">
-        <v>16.009</v>
+        <v>6.1310000000000002</v>
       </c>
       <c r="W17">
-        <v>-5.8170000000000002</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-12.192</v>
+        <v>1.43</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>6.1020000000000003</v>
+        <v>11.977</v>
       </c>
       <c r="AA17">
-        <v>11.221</v>
+        <v>-1.204</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>39172</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>8.86</v>
+        <v>-0.32900000000000001</v>
       </c>
       <c r="D18">
-        <v>75.703000000000003</v>
+        <v>24.495999999999999</v>
       </c>
       <c r="E18">
-        <v>25.63</v>
+        <v>7.7779999999999996</v>
       </c>
       <c r="F18">
-        <v>40.959000000000003</v>
+        <v>15.532999999999999</v>
       </c>
       <c r="G18">
-        <v>307.91199999999998</v>
+        <v>107.71599999999999</v>
       </c>
       <c r="H18">
-        <v>399.36599999999999</v>
+        <v>129.16499999999999</v>
       </c>
       <c r="I18">
-        <v>13.138</v>
+        <v>6.9640000000000004</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2100,75 +2193,75 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>36.860999999999997</v>
+        <v>21.37</v>
       </c>
       <c r="O18">
-        <v>52.941000000000003</v>
+        <v>27.952999999999999</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24.454000000000001</v>
+        <v>12.073</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>39172</v>
       </c>
       <c r="S18">
-        <v>1178</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>346.42500000000001</v>
+        <v>101.212</v>
       </c>
       <c r="U18">
-        <v>126.26600000000001</v>
+        <v>62.889000000000003</v>
       </c>
       <c r="V18">
-        <v>20.536000000000001</v>
+        <v>5.8559999999999999</v>
       </c>
       <c r="W18">
-        <v>-5.8410000000000002</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-12.664999999999999</v>
+        <v>4.2549999999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>19.023</v>
+        <v>3.1739999999999999</v>
       </c>
       <c r="AA18">
-        <v>8.86</v>
+        <v>-0.32900000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>39263</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>5.9630000000000001</v>
+        <v>-6.3659999999999997</v>
       </c>
       <c r="D19">
-        <v>73.537999999999997</v>
+        <v>30.832999999999998</v>
       </c>
       <c r="E19">
-        <v>25.343</v>
+        <v>8.0169999999999995</v>
       </c>
       <c r="F19">
-        <v>39.683</v>
+        <v>19.585000000000001</v>
       </c>
       <c r="G19">
-        <v>315.22300000000001</v>
+        <v>115.729</v>
       </c>
       <c r="H19">
-        <v>409.63</v>
+        <v>138.44900000000001</v>
       </c>
       <c r="I19">
-        <v>19.899999999999999</v>
+        <v>8.1620000000000008</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2183,75 +2276,75 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>45.892000000000003</v>
+        <v>32.286000000000001</v>
       </c>
       <c r="O19">
-        <v>64.177999999999997</v>
+        <v>37.308</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>-30.3</v>
+        <v>5.423</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>39263</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>345.452</v>
+        <v>101.14100000000001</v>
       </c>
       <c r="U19">
-        <v>95.965999999999994</v>
+        <v>68.311999999999998</v>
       </c>
       <c r="V19">
-        <v>15.680999999999999</v>
+        <v>3.2370000000000001</v>
       </c>
       <c r="W19">
-        <v>-5.859</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-13.851000000000001</v>
+        <v>3.4750000000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-25.228000000000002</v>
+        <v>0.497</v>
       </c>
       <c r="AA19">
-        <v>5.9630000000000001</v>
+        <v>-6.3659999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>39355</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>7.899</v>
+        <v>8.9930000000000003</v>
       </c>
       <c r="D20">
-        <v>81.415999999999997</v>
+        <v>40.188000000000002</v>
       </c>
       <c r="E20">
-        <v>26.765000000000001</v>
+        <v>12.771000000000001</v>
       </c>
       <c r="F20">
-        <v>44.128999999999998</v>
+        <v>25.526</v>
       </c>
       <c r="G20">
-        <v>325.31700000000001</v>
+        <v>133.95400000000001</v>
       </c>
       <c r="H20">
-        <v>417.62299999999999</v>
+        <v>157.55799999999999</v>
       </c>
       <c r="I20">
-        <v>16.596</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2266,75 +2359,75 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>46.234000000000002</v>
+        <v>32.652000000000001</v>
       </c>
       <c r="O20">
-        <v>62.860999999999997</v>
+        <v>37.601999999999997</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>-15.098000000000001</v>
+        <v>9.0960000000000001</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>39355</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>354.762</v>
+        <v>119.956</v>
       </c>
       <c r="U20">
-        <v>80.867999999999995</v>
+        <v>77.408000000000001</v>
       </c>
       <c r="V20">
-        <v>7.6680000000000001</v>
+        <v>3.6709999999999998</v>
       </c>
       <c r="W20">
-        <v>-7.9829999999999997</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-7.8209999999999997</v>
+        <v>7.367</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-12.473000000000001</v>
+        <v>-0.38</v>
       </c>
       <c r="AA20">
-        <v>7.899</v>
+        <v>8.9930000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>39447</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>11.201000000000001</v>
+        <v>9.282</v>
       </c>
       <c r="D21">
-        <v>91.194000000000003</v>
+        <v>38.487000000000002</v>
       </c>
       <c r="E21">
-        <v>30.475000000000001</v>
+        <v>8.2390000000000008</v>
       </c>
       <c r="F21">
-        <v>49.44</v>
+        <v>24.579000000000001</v>
       </c>
       <c r="G21">
-        <v>329.96800000000002</v>
+        <v>148.76</v>
       </c>
       <c r="H21">
-        <v>420.07900000000001</v>
+        <v>172.59</v>
       </c>
       <c r="I21">
-        <v>15.661</v>
+        <v>6.1539999999999999</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2349,75 +2442,75 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>48.62</v>
+        <v>29.411999999999999</v>
       </c>
       <c r="O21">
-        <v>65.965999999999994</v>
+        <v>35.052999999999997</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>-4.2519999999999998</v>
+        <v>5.7060000000000004</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>39447</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T21">
-        <v>354.113</v>
+        <v>137.53700000000001</v>
       </c>
       <c r="U21">
-        <v>76.616</v>
+        <v>83.114000000000004</v>
       </c>
       <c r="V21">
-        <v>22.05</v>
+        <v>13.361000000000001</v>
       </c>
       <c r="W21">
-        <v>-8.0109999999999992</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-18.742000000000001</v>
+        <v>4.8810000000000002</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-3.9249999999999998</v>
+        <v>-3.2930000000000001</v>
       </c>
       <c r="AA21">
-        <v>11.201000000000001</v>
+        <v>9.282</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>39538</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>10.109</v>
+        <v>5.9349999999999996</v>
       </c>
       <c r="D22">
-        <v>86.918999999999997</v>
+        <v>35.408999999999999</v>
       </c>
       <c r="E22">
-        <v>30.83</v>
+        <v>11.314</v>
       </c>
       <c r="F22">
-        <v>46.917000000000002</v>
+        <v>22.364999999999998</v>
       </c>
       <c r="G22">
-        <v>331.928</v>
+        <v>108.595</v>
       </c>
       <c r="H22">
-        <v>431.28500000000003</v>
+        <v>172.49600000000001</v>
       </c>
       <c r="I22">
-        <v>13.487</v>
+        <v>7.6669999999999998</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2432,75 +2525,75 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>43.283000000000001</v>
+        <v>27.751999999999999</v>
       </c>
       <c r="O22">
-        <v>62.768999999999998</v>
+        <v>33.244</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.244</v>
+        <v>-18.814</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>39538</v>
       </c>
       <c r="S22">
-        <v>1260</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>368.51600000000002</v>
+        <v>139.25200000000001</v>
       </c>
       <c r="U22">
-        <v>90.86</v>
+        <v>64.3</v>
       </c>
       <c r="V22">
-        <v>24.337</v>
+        <v>5.8979999999999997</v>
       </c>
       <c r="W22">
-        <v>-8.1120000000000001</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-6.2380000000000004</v>
+        <v>-7.3710000000000004</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>8.157</v>
+        <v>-16.5</v>
       </c>
       <c r="AA22">
-        <v>10.109</v>
+        <v>5.9349999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>39629</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>10.574999999999999</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D23">
-        <v>84.512</v>
+        <v>41.502000000000002</v>
       </c>
       <c r="E23">
-        <v>28.835999999999999</v>
+        <v>13.032999999999999</v>
       </c>
       <c r="F23">
-        <v>45.51</v>
+        <v>26.126999999999999</v>
       </c>
       <c r="G23">
-        <v>345.56400000000002</v>
+        <v>129.71299999999999</v>
       </c>
       <c r="H23">
-        <v>447.11200000000002</v>
+        <v>193.45699999999999</v>
       </c>
       <c r="I23">
-        <v>15.731</v>
+        <v>12.625999999999999</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2515,75 +2608,75 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>45.323</v>
+        <v>37.439</v>
       </c>
       <c r="O23">
-        <v>65.126000000000005</v>
+        <v>42.865000000000002</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>-13.052</v>
+        <v>11.295</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>39629</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>381.98599999999999</v>
+        <v>150.59200000000001</v>
       </c>
       <c r="U23">
-        <v>77.808000000000007</v>
+        <v>75.594999999999999</v>
       </c>
       <c r="V23">
-        <v>28.87</v>
+        <v>9.4909999999999997</v>
       </c>
       <c r="W23">
-        <v>-7.9740000000000002</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-6.2249999999999996</v>
+        <v>3.2109999999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-29.45</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>10.574999999999999</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>39721</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>11.198</v>
+        <v>10.457000000000001</v>
       </c>
       <c r="D24">
-        <v>94.078999999999994</v>
+        <v>48.890999999999998</v>
       </c>
       <c r="E24">
-        <v>31.350999999999999</v>
+        <v>18.780999999999999</v>
       </c>
       <c r="F24">
-        <v>50.926000000000002</v>
+        <v>30.69</v>
       </c>
       <c r="G24">
-        <v>349.11399999999998</v>
+        <v>143.142</v>
       </c>
       <c r="H24">
-        <v>468.64100000000002</v>
+        <v>195.822</v>
       </c>
       <c r="I24">
-        <v>19.14</v>
+        <v>8.1549999999999994</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2598,75 +2691,75 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>52.110999999999997</v>
+        <v>28.681999999999999</v>
       </c>
       <c r="O24">
-        <v>73.501000000000005</v>
+        <v>34.036000000000001</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>4.2380000000000004</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>39721</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>395.14</v>
+        <v>161.786</v>
       </c>
       <c r="U24">
-        <v>82.046000000000006</v>
+        <v>75.917000000000002</v>
       </c>
       <c r="V24">
-        <v>14.997999999999999</v>
+        <v>3.4729999999999999</v>
       </c>
       <c r="W24">
-        <v>-8.5060000000000002</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-7.7190000000000003</v>
+        <v>-0.874</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>11.365</v>
+        <v>-3.2850000000000001</v>
       </c>
       <c r="AA24">
-        <v>11.198</v>
+        <v>10.457000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>39813</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>14.372999999999999</v>
+        <v>3.234</v>
       </c>
       <c r="D25">
-        <v>106.456</v>
+        <v>34.709000000000003</v>
       </c>
       <c r="E25">
-        <v>33.335000000000001</v>
+        <v>9.1150000000000002</v>
       </c>
       <c r="F25">
-        <v>57.924999999999997</v>
+        <v>20.145</v>
       </c>
       <c r="G25">
-        <v>366.81</v>
+        <v>143.24700000000001</v>
       </c>
       <c r="H25">
-        <v>494.85599999999999</v>
+        <v>195.29900000000001</v>
       </c>
       <c r="I25">
-        <v>17.332000000000001</v>
+        <v>4.6740000000000004</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2681,75 +2774,75 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>55.515999999999998</v>
+        <v>25.882000000000001</v>
       </c>
       <c r="O25">
-        <v>78.558000000000007</v>
+        <v>30.654</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27.433</v>
+        <v>7.3490000000000002</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>39813</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="T25">
-        <v>416.298</v>
+        <v>164.64500000000001</v>
       </c>
       <c r="U25">
-        <v>109.479</v>
+        <v>83.266000000000005</v>
       </c>
       <c r="V25">
-        <v>32.918999999999997</v>
+        <v>20.728000000000002</v>
       </c>
       <c r="W25">
-        <v>-8.1539999999999999</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-6.1079999999999997</v>
+        <v>-4.7510000000000003</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>11.763</v>
+        <v>-13.163</v>
       </c>
       <c r="AA25">
-        <v>14.372999999999999</v>
+        <v>3.234</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39903</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>16.574000000000002</v>
+        <v>-0.72799999999999998</v>
       </c>
       <c r="D26">
-        <v>103.61799999999999</v>
+        <v>29.321999999999999</v>
       </c>
       <c r="E26">
-        <v>34.247999999999998</v>
+        <v>13.367000000000001</v>
       </c>
       <c r="F26">
-        <v>56.512</v>
+        <v>16.890999999999998</v>
       </c>
       <c r="G26">
-        <v>382.98399999999998</v>
+        <v>148.23699999999999</v>
       </c>
       <c r="H26">
-        <v>511.12599999999998</v>
+        <v>199.99700000000001</v>
       </c>
       <c r="I26">
-        <v>17.427</v>
+        <v>8.3629999999999995</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2764,75 +2857,75 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>52.920999999999999</v>
+        <v>26.544</v>
       </c>
       <c r="O26">
-        <v>80.010000000000005</v>
+        <v>31.326000000000001</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>3.2240000000000002</v>
+        <v>-15.172000000000001</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39903</v>
       </c>
       <c r="S26">
-        <v>1417</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>431.11599999999999</v>
+        <v>168.67099999999999</v>
       </c>
       <c r="U26">
-        <v>112.703</v>
+        <v>68.093999999999994</v>
       </c>
       <c r="V26">
-        <v>30.998999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="W26">
-        <v>-8.4649999999999999</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-8.0749999999999993</v>
+        <v>1.526</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-7.2460000000000004</v>
+        <v>-16.181000000000001</v>
       </c>
       <c r="AA26">
-        <v>16.574000000000002</v>
+        <v>-0.72799999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39994</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>14.477</v>
+        <v>3.1859999999999999</v>
       </c>
       <c r="D27">
-        <v>100.36199999999999</v>
+        <v>41.173000000000002</v>
       </c>
       <c r="E27">
-        <v>38.115000000000002</v>
+        <v>12.448</v>
       </c>
       <c r="F27">
-        <v>54.841999999999999</v>
+        <v>24.35</v>
       </c>
       <c r="G27">
-        <v>406.33600000000001</v>
+        <v>162.06399999999999</v>
       </c>
       <c r="H27">
-        <v>536.80399999999997</v>
+        <v>216.48099999999999</v>
       </c>
       <c r="I27">
-        <v>22.637</v>
+        <v>10.28</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2847,75 +2940,75 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>56.008000000000003</v>
+        <v>31.67</v>
       </c>
       <c r="O27">
-        <v>85.676000000000002</v>
+        <v>36.463999999999999</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>-35.877000000000002</v>
+        <v>-11.278</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39994</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>451.12799999999999</v>
+        <v>180.017</v>
       </c>
       <c r="U27">
-        <v>76.825999999999993</v>
+        <v>56.816000000000003</v>
       </c>
       <c r="V27">
-        <v>21.891999999999999</v>
+        <v>11.015000000000001</v>
       </c>
       <c r="W27">
-        <v>-8.1790000000000003</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-6.9859999999999998</v>
+        <v>3.754</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-46.588999999999999</v>
+        <v>-23.952000000000002</v>
       </c>
       <c r="AA27">
-        <v>14.477</v>
+        <v>3.1859999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>40086</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>15.013</v>
+        <v>12.561999999999999</v>
       </c>
       <c r="D28">
-        <v>112.19799999999999</v>
+        <v>47.966000000000001</v>
       </c>
       <c r="E28">
-        <v>41.981999999999999</v>
+        <v>19.492999999999999</v>
       </c>
       <c r="F28">
-        <v>61.424999999999997</v>
+        <v>29.097999999999999</v>
       </c>
       <c r="G28">
-        <v>427.21300000000002</v>
+        <v>192.47300000000001</v>
       </c>
       <c r="H28">
-        <v>568.04600000000005</v>
+        <v>229.40700000000001</v>
       </c>
       <c r="I28">
-        <v>25.231999999999999</v>
+        <v>8.8670000000000009</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2930,75 +3023,75 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>62.786000000000001</v>
+        <v>23.259</v>
       </c>
       <c r="O28">
-        <v>94.253</v>
+        <v>28.065000000000001</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>-5.7089999999999996</v>
+        <v>-4.8230000000000004</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>40086</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>473.79300000000001</v>
+        <v>201.34200000000001</v>
       </c>
       <c r="U28">
-        <v>71.11</v>
+        <v>51.993000000000002</v>
       </c>
       <c r="V28">
-        <v>24.878</v>
+        <v>4.1950000000000003</v>
       </c>
       <c r="W28">
-        <v>-8.6359999999999992</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-8.5679999999999996</v>
+        <v>5.4619999999999997</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-5</v>
+        <v>-17.707000000000001</v>
       </c>
       <c r="AA28">
-        <v>15.013999999999999</v>
+        <v>12.561999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>40178</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>23.641999999999999</v>
+        <v>4.6539999999999999</v>
       </c>
       <c r="D29">
-        <v>128.93899999999999</v>
+        <v>46.546999999999997</v>
       </c>
       <c r="E29">
-        <v>50.756999999999998</v>
+        <v>15.521000000000001</v>
       </c>
       <c r="F29">
-        <v>70.855999999999995</v>
+        <v>27.338999999999999</v>
       </c>
       <c r="G29">
-        <v>463.80200000000002</v>
+        <v>203.499</v>
       </c>
       <c r="H29">
-        <v>605.01300000000003</v>
+        <v>241.821</v>
       </c>
       <c r="I29">
-        <v>21.831</v>
+        <v>7.7869999999999999</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3013,75 +3106,75 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>66.168000000000006</v>
+        <v>23.922000000000001</v>
       </c>
       <c r="O29">
-        <v>99.49</v>
+        <v>28.864000000000001</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33.311999999999998</v>
+        <v>-5.2759999999999998</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>40178</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="T29">
-        <v>505.52300000000002</v>
+        <v>212.95699999999999</v>
       </c>
       <c r="U29">
-        <v>104.42400000000001</v>
+        <v>46.716999999999999</v>
       </c>
       <c r="V29">
-        <v>33.677999999999997</v>
+        <v>16.134</v>
       </c>
       <c r="W29">
-        <v>-8.4489999999999998</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-7.13</v>
+        <v>2.8759999999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>10.993</v>
+        <v>-21.390999999999998</v>
       </c>
       <c r="AA29">
-        <v>23.641999999999999</v>
+        <v>4.6539999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>40268</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>12.071</v>
+        <v>6.3559999999999999</v>
       </c>
       <c r="D30">
-        <v>129.43</v>
+        <v>50.25</v>
       </c>
       <c r="E30">
-        <v>38.036999999999999</v>
+        <v>24.541</v>
       </c>
       <c r="F30">
-        <v>71.161000000000001</v>
+        <v>29.295999999999999</v>
       </c>
       <c r="G30">
-        <v>449.17</v>
+        <v>217.17599999999999</v>
       </c>
       <c r="H30">
-        <v>652.56899999999996</v>
+        <v>259.315</v>
       </c>
       <c r="I30">
-        <v>22.812999999999999</v>
+        <v>11.680999999999999</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3096,75 +3189,75 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>65.917000000000002</v>
+        <v>25.454999999999998</v>
       </c>
       <c r="O30">
-        <v>130.56200000000001</v>
+        <v>30.428000000000001</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>-21.664999999999999</v>
+        <v>2.1480000000000001</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>40268</v>
       </c>
       <c r="S30">
-        <v>1534</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>522.00699999999995</v>
+        <v>228.887</v>
       </c>
       <c r="U30">
-        <v>82.759</v>
+        <v>48.865000000000002</v>
       </c>
       <c r="V30">
-        <v>53.372999999999998</v>
+        <v>8.2330000000000005</v>
       </c>
       <c r="W30">
-        <v>-8.6620000000000008</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-8.641</v>
+        <v>5.3159999999999998</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-22.433</v>
+        <v>-7.8140000000000001</v>
       </c>
       <c r="AA30">
-        <v>12.071</v>
+        <v>6.3559999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>40359</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>21.856000000000002</v>
+        <v>6.407</v>
       </c>
       <c r="D31">
-        <v>129.15</v>
+        <v>55.69</v>
       </c>
       <c r="E31">
-        <v>48.241</v>
+        <v>30.321999999999999</v>
       </c>
       <c r="F31">
-        <v>71.495000000000005</v>
+        <v>32.433999999999997</v>
       </c>
       <c r="G31">
-        <v>484.10399999999998</v>
+        <v>237.39599999999999</v>
       </c>
       <c r="H31">
-        <v>697.76700000000005</v>
+        <v>285.05</v>
       </c>
       <c r="I31">
-        <v>27.510999999999999</v>
+        <v>11.000999999999999</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3179,75 +3272,75 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>73.301000000000002</v>
+        <v>29.504999999999999</v>
       </c>
       <c r="O31">
-        <v>139.46100000000001</v>
+        <v>35.082000000000001</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>-6.74</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>40359</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>558.30600000000004</v>
+        <v>249.96799999999999</v>
       </c>
       <c r="U31">
-        <v>76.016000000000005</v>
+        <v>48.962000000000003</v>
       </c>
       <c r="V31">
-        <v>16.292000000000002</v>
+        <v>14.518000000000001</v>
       </c>
       <c r="W31">
-        <v>-8.3390000000000004</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>1.0329999999999999</v>
+        <v>8.9109999999999996</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-16.501999999999999</v>
+        <v>-14.093</v>
       </c>
       <c r="AA31">
-        <v>21.856000000000002</v>
+        <v>6.407</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>40451</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>24.206</v>
+        <v>13.218999999999999</v>
       </c>
       <c r="D32">
-        <v>139.761</v>
+        <v>65.843000000000004</v>
       </c>
       <c r="E32">
-        <v>53.46</v>
+        <v>32.289000000000001</v>
       </c>
       <c r="F32">
-        <v>77.563999999999993</v>
+        <v>35.985999999999997</v>
       </c>
       <c r="G32">
-        <v>509.846</v>
+        <v>239.666</v>
       </c>
       <c r="H32">
-        <v>719.952</v>
+        <v>292.43200000000002</v>
       </c>
       <c r="I32">
-        <v>26.689</v>
+        <v>17.754999999999999</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3262,75 +3355,75 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>75.325999999999993</v>
+        <v>33.411999999999999</v>
       </c>
       <c r="O32">
-        <v>140.93199999999999</v>
+        <v>39.082999999999998</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>7.0540000000000003</v>
+        <v>-4.6870000000000003</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>40451</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>579.02</v>
+        <v>253.34899999999999</v>
       </c>
       <c r="U32">
-        <v>83.075000000000003</v>
+        <v>44.274999999999999</v>
       </c>
       <c r="V32">
-        <v>25.417999999999999</v>
+        <v>15.5</v>
       </c>
       <c r="W32">
-        <v>-13.128</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-12.17</v>
+        <v>-14.676</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0.55900000000000005</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AA32">
-        <v>24.206</v>
+        <v>13.218999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>40543</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>31.568000000000001</v>
+        <v>3.581</v>
       </c>
       <c r="D33">
-        <v>159.97499999999999</v>
+        <v>47.057000000000002</v>
       </c>
       <c r="E33">
-        <v>59.887</v>
+        <v>18.347000000000001</v>
       </c>
       <c r="F33">
-        <v>89.018000000000001</v>
+        <v>23.741</v>
       </c>
       <c r="G33">
-        <v>557.40099999999995</v>
+        <v>224.37299999999999</v>
       </c>
       <c r="H33">
-        <v>763.15700000000004</v>
+        <v>281.60300000000001</v>
       </c>
       <c r="I33">
-        <v>27.603000000000002</v>
+        <v>8.9789999999999992</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3345,75 +3438,75 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>85.507000000000005</v>
+        <v>28.97</v>
       </c>
       <c r="O33">
-        <v>152.99299999999999</v>
+        <v>34.707999999999998</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>48.021000000000001</v>
+        <v>3.7349999999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>40543</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>889</v>
       </c>
       <c r="T33">
-        <v>610.16399999999999</v>
+        <v>246.89500000000001</v>
       </c>
       <c r="U33">
-        <v>131.09399999999999</v>
+        <v>48.01</v>
       </c>
       <c r="V33">
-        <v>52.151000000000003</v>
+        <v>10.243</v>
       </c>
       <c r="W33">
-        <v>-12.914</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-10.532</v>
+        <v>-13.598000000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>13.601000000000001</v>
+        <v>10.926</v>
       </c>
       <c r="AA33">
-        <v>31.568000000000001</v>
+        <v>3.581</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>40633</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>27.638000000000002</v>
+        <v>1.893</v>
       </c>
       <c r="D34">
-        <v>153.49700000000001</v>
+        <v>44.468000000000004</v>
       </c>
       <c r="E34">
-        <v>55.213999999999999</v>
+        <v>17.641999999999999</v>
       </c>
       <c r="F34">
-        <v>84.593000000000004</v>
+        <v>22.305</v>
       </c>
       <c r="G34">
-        <v>580.80999999999995</v>
+        <v>219.66900000000001</v>
       </c>
       <c r="H34">
-        <v>793.43200000000002</v>
+        <v>275.01</v>
       </c>
       <c r="I34">
-        <v>22.678000000000001</v>
+        <v>10.505000000000001</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3428,75 +3521,75 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>80.438999999999993</v>
+        <v>26.74</v>
       </c>
       <c r="O34">
-        <v>153.339</v>
+        <v>31.760999999999999</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41.609000000000002</v>
+        <v>26.052</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>40633</v>
       </c>
       <c r="S34">
-        <v>1737</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>640.09299999999996</v>
+        <v>243.249</v>
       </c>
       <c r="U34">
-        <v>172.70400000000001</v>
+        <v>74.061999999999998</v>
       </c>
       <c r="V34">
-        <v>47.59</v>
+        <v>8.23</v>
       </c>
       <c r="W34">
-        <v>-13.093999999999999</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-12.89</v>
+        <v>-8.82</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>14.273999999999999</v>
+        <v>29.611999999999998</v>
       </c>
       <c r="AA34">
-        <v>27.638000000000002</v>
+        <v>1.893</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>40724</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>26.181000000000001</v>
+        <v>3.4820000000000002</v>
       </c>
       <c r="D35">
-        <v>141.363</v>
+        <v>51.628</v>
       </c>
       <c r="E35">
-        <v>58.889000000000003</v>
+        <v>17.588999999999999</v>
       </c>
       <c r="F35">
-        <v>78.006</v>
+        <v>26.558</v>
       </c>
       <c r="G35">
-        <v>574.08500000000004</v>
+        <v>207.774</v>
       </c>
       <c r="H35">
-        <v>848.20899999999995</v>
+        <v>263.16000000000003</v>
       </c>
       <c r="I35">
-        <v>27.259</v>
+        <v>10.929</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3511,75 +3604,75 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>91.575999999999993</v>
+        <v>31.009</v>
       </c>
       <c r="O35">
-        <v>167.958</v>
+        <v>36.03</v>
       </c>
       <c r="P35">
-        <v>2.1539999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>9.0640000000000001</v>
+        <v>23.623000000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>40724</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>680.25099999999998</v>
+        <v>227.13</v>
       </c>
       <c r="U35">
-        <v>181.76900000000001</v>
+        <v>97.685000000000002</v>
       </c>
       <c r="V35">
-        <v>38.835999999999999</v>
+        <v>13.284000000000001</v>
       </c>
       <c r="W35">
-        <v>-12.760999999999999</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-0.76100000000000001</v>
+        <v>-23.988</v>
       </c>
       <c r="Y35">
-        <v>0.996</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>28.076000000000001</v>
+        <v>36.25</v>
       </c>
       <c r="AA35">
-        <v>26.181000000000001</v>
+        <v>3.4820000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>40816</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>20.693000000000001</v>
+        <v>5.4729999999999999</v>
       </c>
       <c r="D36">
-        <v>151.00700000000001</v>
+        <v>52.962000000000003</v>
       </c>
       <c r="E36">
-        <v>55.398000000000003</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="F36">
-        <v>83.224999999999994</v>
+        <v>27.814</v>
       </c>
       <c r="G36">
-        <v>585.13599999999997</v>
+        <v>203.126</v>
       </c>
       <c r="H36">
-        <v>868.11300000000006</v>
+        <v>267.16199999999998</v>
       </c>
       <c r="I36">
-        <v>26.544</v>
+        <v>9.5150000000000006</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3594,75 +3687,75 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>88.12</v>
+        <v>25.088999999999999</v>
       </c>
       <c r="O36">
-        <v>163.959</v>
+        <v>30.109000000000002</v>
       </c>
       <c r="P36">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>15.244999999999999</v>
+        <v>-4.7130000000000001</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>40816</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>704.154</v>
+        <v>237.053</v>
       </c>
       <c r="U36">
-        <v>197.012</v>
+        <v>92.971999999999994</v>
       </c>
       <c r="V36">
-        <v>44.057000000000002</v>
+        <v>8.9049999999999994</v>
       </c>
       <c r="W36">
-        <v>-18.023</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-15.928000000000001</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="Y36">
-        <v>0.89300000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>8.452</v>
+        <v>-0.65500000000000003</v>
       </c>
       <c r="AA36">
-        <v>20.693000000000001</v>
+        <v>5.4729999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40908</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>29.527999999999999</v>
+        <v>2.4529999999999998</v>
       </c>
       <c r="D37">
-        <v>168.81299999999999</v>
+        <v>47.460999999999999</v>
       </c>
       <c r="E37">
-        <v>58.261000000000003</v>
+        <v>15.097</v>
       </c>
       <c r="F37">
-        <v>93.158000000000001</v>
+        <v>24.917000000000002</v>
       </c>
       <c r="G37">
-        <v>629.29499999999996</v>
+        <v>211.505</v>
       </c>
       <c r="H37">
-        <v>916.13499999999999</v>
+        <v>273.86700000000002</v>
       </c>
       <c r="I37">
-        <v>30.318000000000001</v>
+        <v>8.9039999999999999</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3677,75 +3770,75 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>105.026</v>
+        <v>26.07</v>
       </c>
       <c r="O37">
-        <v>181.70699999999999</v>
+        <v>30.99</v>
       </c>
       <c r="P37">
-        <v>2.508</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>9.3759999999999994</v>
+        <v>3.399</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40908</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>922</v>
       </c>
       <c r="T37">
-        <v>734.428</v>
+        <v>242.87700000000001</v>
       </c>
       <c r="U37">
-        <v>205.22900000000001</v>
+        <v>96.370999999999995</v>
       </c>
       <c r="V37">
-        <v>72.424000000000007</v>
+        <v>13.266</v>
       </c>
       <c r="W37">
-        <v>-17.856999999999999</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-14.318</v>
+        <v>0.245</v>
       </c>
       <c r="Y37">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-43.997999999999998</v>
+        <v>-7.9630000000000001</v>
       </c>
       <c r="AA37">
-        <v>29.527999999999999</v>
+        <v>2.4529999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40999</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>32.436999999999998</v>
+        <v>2.9950000000000001</v>
       </c>
       <c r="D38">
-        <v>166.738</v>
+        <v>50.484000000000002</v>
       </c>
       <c r="E38">
-        <v>52.704000000000001</v>
+        <v>19.946999999999999</v>
       </c>
       <c r="F38">
-        <v>91.936000000000007</v>
+        <v>26.41</v>
       </c>
       <c r="G38">
-        <v>655.20600000000002</v>
+        <v>225.42</v>
       </c>
       <c r="H38">
-        <v>956.375</v>
+        <v>291.18</v>
       </c>
       <c r="I38">
-        <v>27.271000000000001</v>
+        <v>14.573</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3760,75 +3853,75 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>98.224999999999994</v>
+        <v>31.469000000000001</v>
       </c>
       <c r="O38">
-        <v>182.88399999999999</v>
+        <v>36.399000000000001</v>
       </c>
       <c r="P38">
-        <v>2.3570000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>-33.427</v>
+        <v>-17.64</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40999</v>
       </c>
       <c r="S38">
-        <v>2002</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>773.49099999999999</v>
+        <v>254.78100000000001</v>
       </c>
       <c r="U38">
-        <v>172.96</v>
+        <v>78.730999999999995</v>
       </c>
       <c r="V38">
-        <v>60.985999999999997</v>
+        <v>6.2190000000000003</v>
       </c>
       <c r="W38">
-        <v>-18.652999999999999</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-17.042999999999999</v>
+        <v>5.1210000000000004</v>
       </c>
       <c r="Y38">
-        <v>1.103</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-69.040999999999997</v>
+        <v>-24.315000000000001</v>
       </c>
       <c r="AA38">
-        <v>32.436999999999998</v>
+        <v>2.9950000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>41090</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>35.756</v>
+        <v>6.5919999999999996</v>
       </c>
       <c r="D39">
-        <v>165.77799999999999</v>
+        <v>58.606999999999999</v>
       </c>
       <c r="E39">
-        <v>54.341000000000001</v>
+        <v>21.414999999999999</v>
       </c>
       <c r="F39">
-        <v>91.447000000000003</v>
+        <v>31.172000000000001</v>
       </c>
       <c r="G39">
-        <v>704.78499999999997</v>
+        <v>238.15100000000001</v>
       </c>
       <c r="H39">
-        <v>1007.504</v>
+        <v>310.07400000000001</v>
       </c>
       <c r="I39">
-        <v>37.752000000000002</v>
+        <v>17.701000000000001</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3843,75 +3936,75 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>112.495</v>
+        <v>35.584000000000003</v>
       </c>
       <c r="O39">
-        <v>194.31399999999999</v>
+        <v>40.832999999999998</v>
       </c>
       <c r="P39">
-        <v>2.226</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>-18.079999999999998</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>41090</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>813.19</v>
+        <v>269.24099999999999</v>
       </c>
       <c r="U39">
-        <v>154.88</v>
+        <v>81.644000000000005</v>
       </c>
       <c r="V39">
-        <v>51.418999999999997</v>
+        <v>6.0730000000000004</v>
       </c>
       <c r="W39">
-        <v>-17.427</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-4.056</v>
+        <v>4.0229999999999997</v>
       </c>
       <c r="Y39">
-        <v>1.0860000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-54.069000000000003</v>
+        <v>1.159</v>
       </c>
       <c r="AA39">
-        <v>35.756</v>
+        <v>6.5919999999999996</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>41182</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>30.166</v>
+        <v>5.9210000000000003</v>
       </c>
       <c r="D40">
-        <v>186.209</v>
+        <v>56.508000000000003</v>
       </c>
       <c r="E40">
-        <v>55.136000000000003</v>
+        <v>21.561</v>
       </c>
       <c r="F40">
-        <v>102.593</v>
+        <v>30.013000000000002</v>
       </c>
       <c r="G40">
-        <v>748.86400000000003</v>
+        <v>242.56800000000001</v>
       </c>
       <c r="H40">
-        <v>1071.155</v>
+        <v>315.26900000000001</v>
       </c>
       <c r="I40">
-        <v>45.168999999999997</v>
+        <v>11.404999999999999</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -3926,75 +4019,75 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>136.785</v>
+        <v>24.864000000000001</v>
       </c>
       <c r="O40">
-        <v>222.21</v>
+        <v>30.204999999999998</v>
       </c>
       <c r="P40">
-        <v>3.4289999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>1.605</v>
+        <v>-3.3969999999999998</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>41182</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>848.94500000000005</v>
+        <v>285.06400000000002</v>
       </c>
       <c r="U40">
-        <v>156.483</v>
+        <v>78.247</v>
       </c>
       <c r="V40">
-        <v>59.33</v>
+        <v>1.1579999999999999</v>
       </c>
       <c r="W40">
-        <v>-24.84</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-26.27</v>
+        <v>5.7759999999999998</v>
       </c>
       <c r="Y40">
-        <v>1.897</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-16.742000000000001</v>
+        <v>-4.2850000000000001</v>
       </c>
       <c r="AA40">
-        <v>30.167000000000002</v>
+        <v>5.9210000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>41274</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>55.566000000000003</v>
+        <v>0.248</v>
       </c>
       <c r="D41">
-        <v>259.42200000000003</v>
+        <v>48.213999999999999</v>
       </c>
       <c r="E41">
-        <v>93.534999999999997</v>
+        <v>19.382999999999999</v>
       </c>
       <c r="F41">
-        <v>143.04</v>
+        <v>25.553000000000001</v>
       </c>
       <c r="G41">
-        <v>819.14300000000003</v>
+        <v>214.30099999999999</v>
       </c>
       <c r="H41">
-        <v>1161.2940000000001</v>
+        <v>287.16199999999998</v>
       </c>
       <c r="I41">
-        <v>48.142000000000003</v>
+        <v>9.859</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -4009,128 +4102,2701 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>158.27799999999999</v>
+        <v>23.46</v>
       </c>
       <c r="O41">
-        <v>246.72499999999999</v>
+        <v>28.867999999999999</v>
       </c>
       <c r="P41">
-        <v>3.0939999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>22.986999999999998</v>
+        <v>-3.1429999999999998</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>41274</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="T41">
-        <v>914.56899999999996</v>
+        <v>258.29399999999998</v>
       </c>
       <c r="U41">
-        <v>179.46600000000001</v>
+        <v>75.103999999999999</v>
       </c>
       <c r="V41">
-        <v>77.406000000000006</v>
+        <v>11.462</v>
       </c>
       <c r="W41">
-        <v>-23.21</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-19.312000000000001</v>
+        <v>-34.472999999999999</v>
       </c>
       <c r="Y41">
-        <v>1.7030000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-17.381</v>
+        <v>21.63</v>
       </c>
       <c r="AA41">
-        <v>55.566000000000003</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>41364</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>2.4990000000000001</v>
       </c>
       <c r="D42">
+        <v>51.47</v>
+      </c>
+      <c r="E42">
+        <v>22.669</v>
+      </c>
+      <c r="F42">
+        <v>27.385000000000002</v>
+      </c>
+      <c r="G42">
+        <v>234.43100000000001</v>
+      </c>
+      <c r="H42">
+        <v>310.791</v>
+      </c>
+      <c r="I42">
+        <v>13.256</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>27.81</v>
+      </c>
+      <c r="O42">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>18.183</v>
+      </c>
+      <c r="R42">
+        <v>41364</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>276.31099999999998</v>
+      </c>
+      <c r="U42">
+        <v>93.287000000000006</v>
+      </c>
+      <c r="V42">
+        <v>6.7039999999999997</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>11.138</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>3.6850000000000001</v>
+      </c>
+      <c r="AA42">
+        <v>2.4990000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>5.49</v>
+      </c>
+      <c r="D43">
+        <v>57.713999999999999</v>
+      </c>
+      <c r="E43">
+        <v>20.318999999999999</v>
+      </c>
+      <c r="F43">
+        <v>30.928000000000001</v>
+      </c>
+      <c r="G43">
+        <v>251.952</v>
+      </c>
+      <c r="H43">
+        <v>332.59399999999999</v>
+      </c>
+      <c r="I43">
+        <v>14.954000000000001</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>32.613</v>
+      </c>
+      <c r="O43">
+        <v>38.631999999999998</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>8.4480000000000004</v>
+      </c>
+      <c r="R43">
+        <v>41455</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>293.96199999999999</v>
+      </c>
+      <c r="U43">
+        <v>101.735</v>
+      </c>
+      <c r="V43">
+        <v>15.513</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>6.2130000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-6.2450000000000001</v>
+      </c>
+      <c r="AA43">
+        <v>5.4889999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>7.41</v>
+      </c>
+      <c r="D44">
+        <v>65.346999999999994</v>
+      </c>
+      <c r="E44">
+        <v>21.957000000000001</v>
+      </c>
+      <c r="F44">
+        <v>35.293999999999997</v>
+      </c>
+      <c r="G44">
+        <v>270.95</v>
+      </c>
+      <c r="H44">
+        <v>350.04</v>
+      </c>
+      <c r="I44">
+        <v>10.406000000000001</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>26.359000000000002</v>
+      </c>
+      <c r="O44">
+        <v>32.709000000000003</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>8.7110000000000003</v>
+      </c>
+      <c r="R44">
+        <v>41547</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>317.33100000000002</v>
+      </c>
+      <c r="U44">
+        <v>110.446</v>
+      </c>
+      <c r="V44">
+        <v>8.0210000000000008</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>9.4749999999999996</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-4.0890000000000004</v>
+      </c>
+      <c r="AA44">
+        <v>7.41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>7.4989999999999997</v>
+      </c>
+      <c r="D45">
+        <v>63.56</v>
+      </c>
+      <c r="E45">
+        <v>23.73</v>
+      </c>
+      <c r="F45">
+        <v>34.293999999999997</v>
+      </c>
+      <c r="G45">
+        <v>292.08600000000001</v>
+      </c>
+      <c r="H45">
+        <v>368.90800000000002</v>
+      </c>
+      <c r="I45">
+        <v>10.694000000000001</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>38.488999999999997</v>
+      </c>
+      <c r="O45">
+        <v>45.509</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>-9.2330000000000005</v>
+      </c>
+      <c r="R45">
+        <v>41639</v>
+      </c>
+      <c r="S45">
+        <v>1105</v>
+      </c>
+      <c r="T45">
+        <v>323.399</v>
+      </c>
+      <c r="U45">
+        <v>101.21299999999999</v>
+      </c>
+      <c r="V45">
+        <v>30.448</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-7.976</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-31.382000000000001</v>
+      </c>
+      <c r="AA45">
+        <v>7.4989999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>9.0180000000000007</v>
+      </c>
+      <c r="D46">
+        <v>60.061</v>
+      </c>
+      <c r="E46">
+        <v>22.056999999999999</v>
+      </c>
+      <c r="F46">
+        <v>32.097000000000001</v>
+      </c>
+      <c r="G46">
+        <v>293.25700000000001</v>
+      </c>
+      <c r="H46">
+        <v>374.63200000000001</v>
+      </c>
+      <c r="I46">
+        <v>11.747999999999999</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>30.638999999999999</v>
+      </c>
+      <c r="O46">
+        <v>39.965000000000003</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>-12.327999999999999</v>
+      </c>
+      <c r="R46">
+        <v>41729</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>334.66699999999997</v>
+      </c>
+      <c r="U46">
+        <v>88.885000000000005</v>
+      </c>
+      <c r="V46">
+        <v>11.984999999999999</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-4.7510000000000003</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-14.725</v>
+      </c>
+      <c r="AA46">
+        <v>9.0180000000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>6.3970000000000002</v>
+      </c>
+      <c r="D47">
+        <v>68.436000000000007</v>
+      </c>
+      <c r="E47">
+        <v>21.42</v>
+      </c>
+      <c r="F47">
+        <v>37.098999999999997</v>
+      </c>
+      <c r="G47">
+        <v>306.29700000000003</v>
+      </c>
+      <c r="H47">
+        <v>386.654</v>
+      </c>
+      <c r="I47">
+        <v>13.759</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>41.97</v>
+      </c>
+      <c r="O47">
+        <v>52.026000000000003</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>18.978000000000002</v>
+      </c>
+      <c r="R47">
+        <v>41820</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>334.62799999999999</v>
+      </c>
+      <c r="U47">
+        <v>107.863</v>
+      </c>
+      <c r="V47">
+        <v>25.603000000000002</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-9.6189999999999998</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>6.6689999999999996</v>
+      </c>
+      <c r="AA47">
+        <v>6.3970000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>11.22</v>
+      </c>
+      <c r="D48">
+        <v>78.334999999999994</v>
+      </c>
+      <c r="E48">
+        <v>24.274000000000001</v>
+      </c>
+      <c r="F48">
+        <v>42.463000000000001</v>
+      </c>
+      <c r="G48">
+        <v>297.31</v>
+      </c>
+      <c r="H48">
+        <v>392.69900000000001</v>
+      </c>
+      <c r="I48">
+        <v>14.792999999999999</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>36.927999999999997</v>
+      </c>
+      <c r="O48">
+        <v>51.037999999999997</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>-6.0510000000000002</v>
+      </c>
+      <c r="R48">
+        <v>41912</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>341.661</v>
+      </c>
+      <c r="U48">
+        <v>101.812</v>
+      </c>
+      <c r="V48">
+        <v>16.009</v>
+      </c>
+      <c r="W48">
+        <v>-5.8170000000000002</v>
+      </c>
+      <c r="X48">
+        <v>-12.192</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>6.1020000000000003</v>
+      </c>
+      <c r="AA48">
+        <v>11.221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>8.86</v>
+      </c>
+      <c r="D49">
+        <v>75.703000000000003</v>
+      </c>
+      <c r="E49">
+        <v>25.63</v>
+      </c>
+      <c r="F49">
+        <v>40.959000000000003</v>
+      </c>
+      <c r="G49">
+        <v>307.91199999999998</v>
+      </c>
+      <c r="H49">
+        <v>399.36599999999999</v>
+      </c>
+      <c r="I49">
+        <v>13.138</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>36.860999999999997</v>
+      </c>
+      <c r="O49">
+        <v>52.941000000000003</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>24.454000000000001</v>
+      </c>
+      <c r="R49">
+        <v>42004</v>
+      </c>
+      <c r="S49">
+        <v>1178</v>
+      </c>
+      <c r="T49">
+        <v>346.42500000000001</v>
+      </c>
+      <c r="U49">
+        <v>126.26600000000001</v>
+      </c>
+      <c r="V49">
+        <v>20.536000000000001</v>
+      </c>
+      <c r="W49">
+        <v>-5.8410000000000002</v>
+      </c>
+      <c r="X49">
+        <v>-12.664999999999999</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>19.023</v>
+      </c>
+      <c r="AA49">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>5.9630000000000001</v>
+      </c>
+      <c r="D50">
+        <v>73.537999999999997</v>
+      </c>
+      <c r="E50">
+        <v>25.343</v>
+      </c>
+      <c r="F50">
+        <v>39.683</v>
+      </c>
+      <c r="G50">
+        <v>315.22300000000001</v>
+      </c>
+      <c r="H50">
+        <v>409.63</v>
+      </c>
+      <c r="I50">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>45.892000000000003</v>
+      </c>
+      <c r="O50">
+        <v>64.177999999999997</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>-30.3</v>
+      </c>
+      <c r="R50">
+        <v>42094</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>345.452</v>
+      </c>
+      <c r="U50">
+        <v>95.965999999999994</v>
+      </c>
+      <c r="V50">
+        <v>15.680999999999999</v>
+      </c>
+      <c r="W50">
+        <v>-5.859</v>
+      </c>
+      <c r="X50">
+        <v>-13.851000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-25.228000000000002</v>
+      </c>
+      <c r="AA50">
+        <v>5.9630000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>7.899</v>
+      </c>
+      <c r="D51">
+        <v>81.415999999999997</v>
+      </c>
+      <c r="E51">
+        <v>26.765000000000001</v>
+      </c>
+      <c r="F51">
+        <v>44.128999999999998</v>
+      </c>
+      <c r="G51">
+        <v>325.31700000000001</v>
+      </c>
+      <c r="H51">
+        <v>417.62299999999999</v>
+      </c>
+      <c r="I51">
+        <v>16.596</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>46.234000000000002</v>
+      </c>
+      <c r="O51">
+        <v>62.860999999999997</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>-15.098000000000001</v>
+      </c>
+      <c r="R51">
+        <v>42185</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>354.762</v>
+      </c>
+      <c r="U51">
+        <v>80.867999999999995</v>
+      </c>
+      <c r="V51">
+        <v>7.6680000000000001</v>
+      </c>
+      <c r="W51">
+        <v>-7.9829999999999997</v>
+      </c>
+      <c r="X51">
+        <v>-7.8209999999999997</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-12.473000000000001</v>
+      </c>
+      <c r="AA51">
+        <v>7.899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>11.201000000000001</v>
+      </c>
+      <c r="D52">
+        <v>91.194000000000003</v>
+      </c>
+      <c r="E52">
+        <v>30.475000000000001</v>
+      </c>
+      <c r="F52">
+        <v>49.44</v>
+      </c>
+      <c r="G52">
+        <v>329.96800000000002</v>
+      </c>
+      <c r="H52">
+        <v>420.07900000000001</v>
+      </c>
+      <c r="I52">
+        <v>15.661</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>48.62</v>
+      </c>
+      <c r="O52">
+        <v>65.965999999999994</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>-4.2519999999999998</v>
+      </c>
+      <c r="R52">
+        <v>42277</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>354.113</v>
+      </c>
+      <c r="U52">
+        <v>76.616</v>
+      </c>
+      <c r="V52">
+        <v>22.05</v>
+      </c>
+      <c r="W52">
+        <v>-8.0109999999999992</v>
+      </c>
+      <c r="X52">
+        <v>-18.742000000000001</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-3.9249999999999998</v>
+      </c>
+      <c r="AA52">
+        <v>11.201000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>10.109</v>
+      </c>
+      <c r="D53">
+        <v>86.918999999999997</v>
+      </c>
+      <c r="E53">
+        <v>30.83</v>
+      </c>
+      <c r="F53">
+        <v>46.917000000000002</v>
+      </c>
+      <c r="G53">
+        <v>331.928</v>
+      </c>
+      <c r="H53">
+        <v>431.28500000000003</v>
+      </c>
+      <c r="I53">
+        <v>13.487</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>43.283000000000001</v>
+      </c>
+      <c r="O53">
+        <v>62.768999999999998</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>14.244</v>
+      </c>
+      <c r="R53">
+        <v>42369</v>
+      </c>
+      <c r="S53">
+        <v>1260</v>
+      </c>
+      <c r="T53">
+        <v>368.51600000000002</v>
+      </c>
+      <c r="U53">
+        <v>90.86</v>
+      </c>
+      <c r="V53">
+        <v>24.337</v>
+      </c>
+      <c r="W53">
+        <v>-8.1120000000000001</v>
+      </c>
+      <c r="X53">
+        <v>-6.2380000000000004</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>8.157</v>
+      </c>
+      <c r="AA53">
+        <v>10.109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>10.574999999999999</v>
+      </c>
+      <c r="D54">
+        <v>84.512</v>
+      </c>
+      <c r="E54">
+        <v>28.835999999999999</v>
+      </c>
+      <c r="F54">
+        <v>45.51</v>
+      </c>
+      <c r="G54">
+        <v>345.56400000000002</v>
+      </c>
+      <c r="H54">
+        <v>447.11200000000002</v>
+      </c>
+      <c r="I54">
+        <v>15.731</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>45.323</v>
+      </c>
+      <c r="O54">
+        <v>65.126000000000005</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>-13.052</v>
+      </c>
+      <c r="R54">
+        <v>42460</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>381.98599999999999</v>
+      </c>
+      <c r="U54">
+        <v>77.808000000000007</v>
+      </c>
+      <c r="V54">
+        <v>28.87</v>
+      </c>
+      <c r="W54">
+        <v>-7.9740000000000002</v>
+      </c>
+      <c r="X54">
+        <v>-6.2249999999999996</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-29.45</v>
+      </c>
+      <c r="AA54">
+        <v>10.574999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>11.198</v>
+      </c>
+      <c r="D55">
+        <v>94.078999999999994</v>
+      </c>
+      <c r="E55">
+        <v>31.350999999999999</v>
+      </c>
+      <c r="F55">
+        <v>50.926000000000002</v>
+      </c>
+      <c r="G55">
+        <v>349.11399999999998</v>
+      </c>
+      <c r="H55">
+        <v>468.64100000000002</v>
+      </c>
+      <c r="I55">
+        <v>19.14</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>52.110999999999997</v>
+      </c>
+      <c r="O55">
+        <v>73.501000000000005</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>4.2380000000000004</v>
+      </c>
+      <c r="R55">
+        <v>42551</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>395.14</v>
+      </c>
+      <c r="U55">
+        <v>82.046000000000006</v>
+      </c>
+      <c r="V55">
+        <v>14.997999999999999</v>
+      </c>
+      <c r="W55">
+        <v>-8.5060000000000002</v>
+      </c>
+      <c r="X55">
+        <v>-7.7190000000000003</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>11.365</v>
+      </c>
+      <c r="AA55">
+        <v>11.198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>14.372999999999999</v>
+      </c>
+      <c r="D56">
+        <v>106.456</v>
+      </c>
+      <c r="E56">
+        <v>33.335000000000001</v>
+      </c>
+      <c r="F56">
+        <v>57.924999999999997</v>
+      </c>
+      <c r="G56">
+        <v>366.81</v>
+      </c>
+      <c r="H56">
+        <v>494.85599999999999</v>
+      </c>
+      <c r="I56">
+        <v>17.332000000000001</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>55.515999999999998</v>
+      </c>
+      <c r="O56">
+        <v>78.558000000000007</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>27.433</v>
+      </c>
+      <c r="R56">
+        <v>42643</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>416.298</v>
+      </c>
+      <c r="U56">
+        <v>109.479</v>
+      </c>
+      <c r="V56">
+        <v>32.918999999999997</v>
+      </c>
+      <c r="W56">
+        <v>-8.1539999999999999</v>
+      </c>
+      <c r="X56">
+        <v>-6.1079999999999997</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>11.763</v>
+      </c>
+      <c r="AA56">
+        <v>14.372999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>16.574000000000002</v>
+      </c>
+      <c r="D57">
+        <v>103.61799999999999</v>
+      </c>
+      <c r="E57">
+        <v>34.247999999999998</v>
+      </c>
+      <c r="F57">
+        <v>56.512</v>
+      </c>
+      <c r="G57">
+        <v>382.98399999999998</v>
+      </c>
+      <c r="H57">
+        <v>511.12599999999998</v>
+      </c>
+      <c r="I57">
+        <v>17.427</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>52.920999999999999</v>
+      </c>
+      <c r="O57">
+        <v>80.010000000000005</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>3.2240000000000002</v>
+      </c>
+      <c r="R57">
+        <v>42735</v>
+      </c>
+      <c r="S57">
+        <v>1417</v>
+      </c>
+      <c r="T57">
+        <v>431.11599999999999</v>
+      </c>
+      <c r="U57">
+        <v>112.703</v>
+      </c>
+      <c r="V57">
+        <v>30.998999999999999</v>
+      </c>
+      <c r="W57">
+        <v>-8.4649999999999999</v>
+      </c>
+      <c r="X57">
+        <v>-8.0749999999999993</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-7.2460000000000004</v>
+      </c>
+      <c r="AA57">
+        <v>16.574000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>14.477</v>
+      </c>
+      <c r="D58">
+        <v>100.36199999999999</v>
+      </c>
+      <c r="E58">
+        <v>38.115000000000002</v>
+      </c>
+      <c r="F58">
+        <v>54.841999999999999</v>
+      </c>
+      <c r="G58">
+        <v>406.33600000000001</v>
+      </c>
+      <c r="H58">
+        <v>536.80399999999997</v>
+      </c>
+      <c r="I58">
+        <v>22.637</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>56.008000000000003</v>
+      </c>
+      <c r="O58">
+        <v>85.676000000000002</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>-35.877000000000002</v>
+      </c>
+      <c r="R58">
+        <v>42825</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>451.12799999999999</v>
+      </c>
+      <c r="U58">
+        <v>76.825999999999993</v>
+      </c>
+      <c r="V58">
+        <v>21.891999999999999</v>
+      </c>
+      <c r="W58">
+        <v>-8.1790000000000003</v>
+      </c>
+      <c r="X58">
+        <v>-6.9859999999999998</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-46.588999999999999</v>
+      </c>
+      <c r="AA58">
+        <v>14.477</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>15.013</v>
+      </c>
+      <c r="D59">
+        <v>112.19799999999999</v>
+      </c>
+      <c r="E59">
+        <v>41.981999999999999</v>
+      </c>
+      <c r="F59">
+        <v>61.424999999999997</v>
+      </c>
+      <c r="G59">
+        <v>427.21300000000002</v>
+      </c>
+      <c r="H59">
+        <v>568.04600000000005</v>
+      </c>
+      <c r="I59">
+        <v>25.231999999999999</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>62.786000000000001</v>
+      </c>
+      <c r="O59">
+        <v>94.253</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>-5.7089999999999996</v>
+      </c>
+      <c r="R59">
+        <v>42916</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>473.79300000000001</v>
+      </c>
+      <c r="U59">
+        <v>71.11</v>
+      </c>
+      <c r="V59">
+        <v>24.878</v>
+      </c>
+      <c r="W59">
+        <v>-8.6359999999999992</v>
+      </c>
+      <c r="X59">
+        <v>-8.5679999999999996</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-5</v>
+      </c>
+      <c r="AA59">
+        <v>15.013999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>23.641999999999999</v>
+      </c>
+      <c r="D60">
+        <v>128.93899999999999</v>
+      </c>
+      <c r="E60">
+        <v>50.756999999999998</v>
+      </c>
+      <c r="F60">
+        <v>70.855999999999995</v>
+      </c>
+      <c r="G60">
+        <v>463.80200000000002</v>
+      </c>
+      <c r="H60">
+        <v>605.01300000000003</v>
+      </c>
+      <c r="I60">
+        <v>21.831</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>66.168000000000006</v>
+      </c>
+      <c r="O60">
+        <v>99.49</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>33.311999999999998</v>
+      </c>
+      <c r="R60">
+        <v>43008</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>505.52300000000002</v>
+      </c>
+      <c r="U60">
+        <v>104.42400000000001</v>
+      </c>
+      <c r="V60">
+        <v>33.677999999999997</v>
+      </c>
+      <c r="W60">
+        <v>-8.4489999999999998</v>
+      </c>
+      <c r="X60">
+        <v>-7.13</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>10.993</v>
+      </c>
+      <c r="AA60">
+        <v>23.641999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>12.071</v>
+      </c>
+      <c r="D61">
+        <v>129.43</v>
+      </c>
+      <c r="E61">
+        <v>38.036999999999999</v>
+      </c>
+      <c r="F61">
+        <v>71.161000000000001</v>
+      </c>
+      <c r="G61">
+        <v>449.17</v>
+      </c>
+      <c r="H61">
+        <v>652.56899999999996</v>
+      </c>
+      <c r="I61">
+        <v>22.812999999999999</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>65.917000000000002</v>
+      </c>
+      <c r="O61">
+        <v>130.56200000000001</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>-21.664999999999999</v>
+      </c>
+      <c r="R61">
+        <v>43100</v>
+      </c>
+      <c r="S61">
+        <v>1534</v>
+      </c>
+      <c r="T61">
+        <v>522.00699999999995</v>
+      </c>
+      <c r="U61">
+        <v>82.759</v>
+      </c>
+      <c r="V61">
+        <v>53.372999999999998</v>
+      </c>
+      <c r="W61">
+        <v>-8.6620000000000008</v>
+      </c>
+      <c r="X61">
+        <v>-8.641</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-22.433</v>
+      </c>
+      <c r="AA61">
+        <v>12.071</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>21.856000000000002</v>
+      </c>
+      <c r="D62">
+        <v>129.15</v>
+      </c>
+      <c r="E62">
+        <v>48.241</v>
+      </c>
+      <c r="F62">
+        <v>71.495000000000005</v>
+      </c>
+      <c r="G62">
+        <v>484.10399999999998</v>
+      </c>
+      <c r="H62">
+        <v>697.76700000000005</v>
+      </c>
+      <c r="I62">
+        <v>27.510999999999999</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>73.301000000000002</v>
+      </c>
+      <c r="O62">
+        <v>139.46100000000001</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>-6.74</v>
+      </c>
+      <c r="R62">
+        <v>43190</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>558.30600000000004</v>
+      </c>
+      <c r="U62">
+        <v>76.016000000000005</v>
+      </c>
+      <c r="V62">
+        <v>16.292000000000002</v>
+      </c>
+      <c r="W62">
+        <v>-8.3390000000000004</v>
+      </c>
+      <c r="X62">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-16.501999999999999</v>
+      </c>
+      <c r="AA62">
+        <v>21.856000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>24.206</v>
+      </c>
+      <c r="D63">
+        <v>139.761</v>
+      </c>
+      <c r="E63">
+        <v>53.46</v>
+      </c>
+      <c r="F63">
+        <v>77.563999999999993</v>
+      </c>
+      <c r="G63">
+        <v>509.846</v>
+      </c>
+      <c r="H63">
+        <v>719.952</v>
+      </c>
+      <c r="I63">
+        <v>26.689</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>75.325999999999993</v>
+      </c>
+      <c r="O63">
+        <v>140.93199999999999</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>7.0540000000000003</v>
+      </c>
+      <c r="R63">
+        <v>43281</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>579.02</v>
+      </c>
+      <c r="U63">
+        <v>83.075000000000003</v>
+      </c>
+      <c r="V63">
+        <v>25.417999999999999</v>
+      </c>
+      <c r="W63">
+        <v>-13.128</v>
+      </c>
+      <c r="X63">
+        <v>-12.17</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="AA63">
+        <v>24.206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>31.568000000000001</v>
+      </c>
+      <c r="D64">
+        <v>159.97499999999999</v>
+      </c>
+      <c r="E64">
+        <v>59.887</v>
+      </c>
+      <c r="F64">
+        <v>89.018000000000001</v>
+      </c>
+      <c r="G64">
+        <v>557.40099999999995</v>
+      </c>
+      <c r="H64">
+        <v>763.15700000000004</v>
+      </c>
+      <c r="I64">
+        <v>27.603000000000002</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>85.507000000000005</v>
+      </c>
+      <c r="O64">
+        <v>152.99299999999999</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>48.021000000000001</v>
+      </c>
+      <c r="R64">
+        <v>43373</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>610.16399999999999</v>
+      </c>
+      <c r="U64">
+        <v>131.09399999999999</v>
+      </c>
+      <c r="V64">
+        <v>52.151000000000003</v>
+      </c>
+      <c r="W64">
+        <v>-12.914</v>
+      </c>
+      <c r="X64">
+        <v>-10.532</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>13.601000000000001</v>
+      </c>
+      <c r="AA64">
+        <v>31.568000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>27.638000000000002</v>
+      </c>
+      <c r="D65">
+        <v>153.49700000000001</v>
+      </c>
+      <c r="E65">
+        <v>55.213999999999999</v>
+      </c>
+      <c r="F65">
+        <v>84.593000000000004</v>
+      </c>
+      <c r="G65">
+        <v>580.80999999999995</v>
+      </c>
+      <c r="H65">
+        <v>793.43200000000002</v>
+      </c>
+      <c r="I65">
+        <v>22.678000000000001</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>80.438999999999993</v>
+      </c>
+      <c r="O65">
+        <v>153.339</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>41.609000000000002</v>
+      </c>
+      <c r="R65">
+        <v>43465</v>
+      </c>
+      <c r="S65">
+        <v>1737</v>
+      </c>
+      <c r="T65">
+        <v>640.09299999999996</v>
+      </c>
+      <c r="U65">
+        <v>172.70400000000001</v>
+      </c>
+      <c r="V65">
+        <v>47.59</v>
+      </c>
+      <c r="W65">
+        <v>-13.093999999999999</v>
+      </c>
+      <c r="X65">
+        <v>-12.89</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>14.273999999999999</v>
+      </c>
+      <c r="AA65">
+        <v>27.638000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>26.181000000000001</v>
+      </c>
+      <c r="D66">
+        <v>141.363</v>
+      </c>
+      <c r="E66">
+        <v>58.889000000000003</v>
+      </c>
+      <c r="F66">
+        <v>78.006</v>
+      </c>
+      <c r="G66">
+        <v>574.08500000000004</v>
+      </c>
+      <c r="H66">
+        <v>848.20899999999995</v>
+      </c>
+      <c r="I66">
+        <v>27.259</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>91.575999999999993</v>
+      </c>
+      <c r="O66">
+        <v>167.958</v>
+      </c>
+      <c r="P66">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="Q66">
+        <v>9.0640000000000001</v>
+      </c>
+      <c r="R66">
+        <v>43555</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>680.25099999999998</v>
+      </c>
+      <c r="U66">
+        <v>181.76900000000001</v>
+      </c>
+      <c r="V66">
+        <v>38.835999999999999</v>
+      </c>
+      <c r="W66">
+        <v>-12.760999999999999</v>
+      </c>
+      <c r="X66">
+        <v>-0.76100000000000001</v>
+      </c>
+      <c r="Y66">
+        <v>0.996</v>
+      </c>
+      <c r="Z66">
+        <v>28.076000000000001</v>
+      </c>
+      <c r="AA66">
+        <v>26.181000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>20.693000000000001</v>
+      </c>
+      <c r="D67">
+        <v>151.00700000000001</v>
+      </c>
+      <c r="E67">
+        <v>55.398000000000003</v>
+      </c>
+      <c r="F67">
+        <v>83.224999999999994</v>
+      </c>
+      <c r="G67">
+        <v>585.13599999999997</v>
+      </c>
+      <c r="H67">
+        <v>868.11300000000006</v>
+      </c>
+      <c r="I67">
+        <v>26.544</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>88.12</v>
+      </c>
+      <c r="O67">
+        <v>163.959</v>
+      </c>
+      <c r="P67">
+        <v>1.99</v>
+      </c>
+      <c r="Q67">
+        <v>15.244999999999999</v>
+      </c>
+      <c r="R67">
+        <v>43646</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>704.154</v>
+      </c>
+      <c r="U67">
+        <v>197.012</v>
+      </c>
+      <c r="V67">
+        <v>44.057000000000002</v>
+      </c>
+      <c r="W67">
+        <v>-18.023</v>
+      </c>
+      <c r="X67">
+        <v>-15.928000000000001</v>
+      </c>
+      <c r="Y67">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="Z67">
+        <v>8.452</v>
+      </c>
+      <c r="AA67">
+        <v>20.693000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>29.527999999999999</v>
+      </c>
+      <c r="D68">
+        <v>168.81299999999999</v>
+      </c>
+      <c r="E68">
+        <v>58.261000000000003</v>
+      </c>
+      <c r="F68">
+        <v>93.158000000000001</v>
+      </c>
+      <c r="G68">
+        <v>629.29499999999996</v>
+      </c>
+      <c r="H68">
+        <v>916.13499999999999</v>
+      </c>
+      <c r="I68">
+        <v>30.318000000000001</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>105.026</v>
+      </c>
+      <c r="O68">
+        <v>181.70699999999999</v>
+      </c>
+      <c r="P68">
+        <v>2.508</v>
+      </c>
+      <c r="Q68">
+        <v>9.3759999999999994</v>
+      </c>
+      <c r="R68">
+        <v>43738</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>734.428</v>
+      </c>
+      <c r="U68">
+        <v>205.22900000000001</v>
+      </c>
+      <c r="V68">
+        <v>72.424000000000007</v>
+      </c>
+      <c r="W68">
+        <v>-17.856999999999999</v>
+      </c>
+      <c r="X68">
+        <v>-14.318</v>
+      </c>
+      <c r="Y68">
+        <v>1.19</v>
+      </c>
+      <c r="Z68">
+        <v>-43.997999999999998</v>
+      </c>
+      <c r="AA68">
+        <v>29.527999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>32.436999999999998</v>
+      </c>
+      <c r="D69">
+        <v>166.738</v>
+      </c>
+      <c r="E69">
+        <v>52.704000000000001</v>
+      </c>
+      <c r="F69">
+        <v>91.936000000000007</v>
+      </c>
+      <c r="G69">
+        <v>655.20600000000002</v>
+      </c>
+      <c r="H69">
+        <v>956.375</v>
+      </c>
+      <c r="I69">
+        <v>27.271000000000001</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>98.224999999999994</v>
+      </c>
+      <c r="O69">
+        <v>182.88399999999999</v>
+      </c>
+      <c r="P69">
+        <v>2.3570000000000002</v>
+      </c>
+      <c r="Q69">
+        <v>-33.427</v>
+      </c>
+      <c r="R69">
+        <v>43830</v>
+      </c>
+      <c r="S69">
+        <v>2002</v>
+      </c>
+      <c r="T69">
+        <v>773.49099999999999</v>
+      </c>
+      <c r="U69">
+        <v>172.96</v>
+      </c>
+      <c r="V69">
+        <v>60.985999999999997</v>
+      </c>
+      <c r="W69">
+        <v>-18.652999999999999</v>
+      </c>
+      <c r="X69">
+        <v>-17.042999999999999</v>
+      </c>
+      <c r="Y69">
+        <v>1.103</v>
+      </c>
+      <c r="Z69">
+        <v>-69.040999999999997</v>
+      </c>
+      <c r="AA69">
+        <v>32.436999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>35.756</v>
+      </c>
+      <c r="D70">
+        <v>165.77799999999999</v>
+      </c>
+      <c r="E70">
+        <v>54.341000000000001</v>
+      </c>
+      <c r="F70">
+        <v>91.447000000000003</v>
+      </c>
+      <c r="G70">
+        <v>704.78499999999997</v>
+      </c>
+      <c r="H70">
+        <v>1007.504</v>
+      </c>
+      <c r="I70">
+        <v>37.752000000000002</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>112.495</v>
+      </c>
+      <c r="O70">
+        <v>194.31399999999999</v>
+      </c>
+      <c r="P70">
+        <v>2.226</v>
+      </c>
+      <c r="Q70">
+        <v>-18.079999999999998</v>
+      </c>
+      <c r="R70">
+        <v>43921</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>813.19</v>
+      </c>
+      <c r="U70">
+        <v>154.88</v>
+      </c>
+      <c r="V70">
+        <v>51.418999999999997</v>
+      </c>
+      <c r="W70">
+        <v>-17.427</v>
+      </c>
+      <c r="X70">
+        <v>-4.056</v>
+      </c>
+      <c r="Y70">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="Z70">
+        <v>-54.069000000000003</v>
+      </c>
+      <c r="AA70">
+        <v>35.756</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>30.166</v>
+      </c>
+      <c r="D71">
+        <v>186.209</v>
+      </c>
+      <c r="E71">
+        <v>55.136000000000003</v>
+      </c>
+      <c r="F71">
+        <v>102.593</v>
+      </c>
+      <c r="G71">
+        <v>748.86400000000003</v>
+      </c>
+      <c r="H71">
+        <v>1071.155</v>
+      </c>
+      <c r="I71">
+        <v>45.168999999999997</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>136.785</v>
+      </c>
+      <c r="O71">
+        <v>222.21</v>
+      </c>
+      <c r="P71">
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="Q71">
+        <v>1.605</v>
+      </c>
+      <c r="R71">
+        <v>44012</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>848.94500000000005</v>
+      </c>
+      <c r="U71">
+        <v>156.483</v>
+      </c>
+      <c r="V71">
+        <v>59.33</v>
+      </c>
+      <c r="W71">
+        <v>-24.84</v>
+      </c>
+      <c r="X71">
+        <v>-26.27</v>
+      </c>
+      <c r="Y71">
+        <v>1.897</v>
+      </c>
+      <c r="Z71">
+        <v>-16.742000000000001</v>
+      </c>
+      <c r="AA71">
+        <v>30.167000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>55.566000000000003</v>
+      </c>
+      <c r="D72">
+        <v>259.42200000000003</v>
+      </c>
+      <c r="E72">
+        <v>93.534999999999997</v>
+      </c>
+      <c r="F72">
+        <v>143.04</v>
+      </c>
+      <c r="G72">
+        <v>819.14300000000003</v>
+      </c>
+      <c r="H72">
+        <v>1161.2940000000001</v>
+      </c>
+      <c r="I72">
+        <v>48.142000000000003</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>158.27799999999999</v>
+      </c>
+      <c r="O72">
+        <v>246.72499999999999</v>
+      </c>
+      <c r="P72">
+        <v>3.0939999999999999</v>
+      </c>
+      <c r="Q72">
+        <v>22.986999999999998</v>
+      </c>
+      <c r="R72">
+        <v>44104</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>914.56899999999996</v>
+      </c>
+      <c r="U72">
+        <v>179.46600000000001</v>
+      </c>
+      <c r="V72">
+        <v>77.406000000000006</v>
+      </c>
+      <c r="W72">
+        <v>-23.21</v>
+      </c>
+      <c r="X72">
+        <v>-19.312000000000001</v>
+      </c>
+      <c r="Y72">
+        <v>1.7030000000000001</v>
+      </c>
+      <c r="Z72">
+        <v>-17.381</v>
+      </c>
+      <c r="AA72">
+        <v>55.566000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>42.887</v>
+      </c>
+      <c r="D73">
         <v>233.04300000000001</v>
       </c>
-      <c r="E42">
+      <c r="E73">
         <v>66.843000000000004</v>
       </c>
-      <c r="F42">
+      <c r="F73">
         <v>128.874</v>
       </c>
-      <c r="G42">
+      <c r="G73">
         <v>841.99800000000005</v>
       </c>
-      <c r="H42">
+      <c r="H73">
         <v>1208.491</v>
       </c>
-      <c r="I42">
+      <c r="I73">
         <v>38.168999999999997</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
         <v>146.96899999999999</v>
       </c>
-      <c r="O42">
+      <c r="O73">
         <v>241.904</v>
       </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
+      <c r="P73">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="Q73">
+        <v>155.483</v>
+      </c>
+      <c r="R73">
         <v>44196</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S73">
+        <v>2209</v>
+      </c>
+      <c r="T73">
         <v>966.58699999999999</v>
       </c>
-      <c r="U42">
+      <c r="U73">
         <v>334.94400000000002</v>
       </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="V73">
+        <v>79.647999999999996</v>
+      </c>
+      <c r="W73">
+        <v>-23.309000000000001</v>
+      </c>
+      <c r="X73">
+        <v>-21.919</v>
+      </c>
+      <c r="Y73">
+        <v>1.6930000000000001</v>
+      </c>
+      <c r="Z73">
+        <v>107.321</v>
+      </c>
+      <c r="AA73">
         <v>42.887</v>
       </c>
     </row>
